--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1151145.555257332</v>
+        <v>-1154035.991589563</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>64.4626733392806</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>51.46879358152509</v>
+        <v>51.46879358152589</v>
       </c>
       <c r="S5" t="n">
-        <v>5.309929095713203</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>64.4626733392806</v>
+        <v>62.8965566932775</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>64.4626733392806</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>64.4626733392806</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>60.53961789457099</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>48.11962985594398</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>60.7017781219438</v>
       </c>
       <c r="V6" t="n">
-        <v>8.659092821294292</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>64.4626733392806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>50.23773520262258</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.68051965127841</v>
+        <v>43.68051965127881</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.32314116261794</v>
+        <v>27.32314116261841</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>64.4626733392806</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>50.23773520261762</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663196</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H8" t="n">
-        <v>153.8072380324127</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.7788117555066</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>104.6691083457637</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>14.3916353558031</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>12.24050011784125</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553089</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845843</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>108.1941125127772</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>205.0648930180105</v>
+        <v>116.938815741851</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>67.63321619982521</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330.5116539002501</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1622,10 @@
         <v>410.5779386692648</v>
       </c>
       <c r="H14" t="n">
-        <v>291.0869559354979</v>
+        <v>237.472469257828</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.32308206499081</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9676690001669</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>134.8155269127999</v>
       </c>
       <c r="H15" t="n">
-        <v>87.82038050226679</v>
+        <v>87.82038050226677</v>
       </c>
       <c r="I15" t="n">
-        <v>12.48411918542101</v>
+        <v>12.48411918542095</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.7268609701128</v>
+        <v>124.7268609701127</v>
       </c>
       <c r="T15" t="n">
         <v>189.9751539574206</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>40.01053458592668</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.3839388807803</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.71487488943748</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.99826508120167</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.0815480755145</v>
+        <v>187.0815480755144</v>
       </c>
       <c r="T16" t="n">
         <v>218.8900477058583</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2034266962046</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>95.15066430429044</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -2002,7 +2002,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659985</v>
@@ -2014,13 +2014,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H19" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453017</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221514</v>
+        <v>42.04747230221457</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424834</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2239,7 +2239,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659985</v>
@@ -2248,16 +2248,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.810845670716</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442983</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453017</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424834</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2476,7 +2476,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D25" t="n">
         <v>117.0052706659985</v>
@@ -2488,13 +2488,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453017</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424834</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442965</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453028</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221591</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2801,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H29" t="n">
         <v>255.241665994756</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2849,16 +2849,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="30">
@@ -2950,16 +2950,16 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659967</v>
       </c>
       <c r="E31" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707156</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510283</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453021</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221586</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424834</v>
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943545</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947567</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659975</v>
       </c>
       <c r="E37" t="n">
         <v>114.8237602943553</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
       <c r="C5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
       <c r="D5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
       <c r="E5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
       <c r="F5" t="n">
-        <v>70.27082532096125</v>
+        <v>135.3846367747754</v>
       </c>
       <c r="G5" t="n">
-        <v>5.157013867142448</v>
+        <v>70.27082532095885</v>
       </c>
       <c r="H5" t="n">
-        <v>5.157013867142448</v>
+        <v>70.27082532095885</v>
       </c>
       <c r="I5" t="n">
-        <v>5.157013867142448</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="J5" t="n">
-        <v>5.157013867142448</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="K5" t="n">
-        <v>5.157013867142448</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="L5" t="n">
-        <v>16.47834633768575</v>
+        <v>68.9750604730279</v>
       </c>
       <c r="M5" t="n">
-        <v>60.74494754249765</v>
+        <v>113.2416616778376</v>
       </c>
       <c r="N5" t="n">
-        <v>110.341637012943</v>
+        <v>177.0597082837232</v>
       </c>
       <c r="O5" t="n">
-        <v>143.8391232359007</v>
+        <v>240.8777548896089</v>
       </c>
       <c r="P5" t="n">
-        <v>194.0326467512346</v>
+        <v>257.8506933571136</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.8506933571224</v>
+        <v>257.8506933571136</v>
       </c>
       <c r="R5" t="n">
-        <v>205.8620129717435</v>
+        <v>205.8620129717339</v>
       </c>
       <c r="S5" t="n">
-        <v>200.4984482285989</v>
+        <v>205.8620129717339</v>
       </c>
       <c r="T5" t="n">
-        <v>200.4984482285989</v>
+        <v>205.8620129717339</v>
       </c>
       <c r="U5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
       <c r="V5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
       <c r="W5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
       <c r="X5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.3846367747801</v>
+        <v>142.3301375239789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200.4984482285989</v>
+        <v>131.4219545073942</v>
       </c>
       <c r="C6" t="n">
-        <v>200.4984482285989</v>
+        <v>131.4219545073942</v>
       </c>
       <c r="D6" t="n">
-        <v>135.3846367747801</v>
+        <v>131.4219545073942</v>
       </c>
       <c r="E6" t="n">
-        <v>70.27082532096125</v>
+        <v>66.30814305357762</v>
       </c>
       <c r="F6" t="n">
-        <v>70.27082532096125</v>
+        <v>66.30814305357762</v>
       </c>
       <c r="G6" t="n">
-        <v>70.27082532096125</v>
+        <v>66.30814305357762</v>
       </c>
       <c r="H6" t="n">
-        <v>5.157013867142448</v>
+        <v>66.30814305357762</v>
       </c>
       <c r="I6" t="n">
-        <v>5.157013867142448</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="J6" t="n">
-        <v>5.157013867142448</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="K6" t="n">
-        <v>5.157013867142448</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="L6" t="n">
-        <v>48.1513447875119</v>
+        <v>48.15134478751027</v>
       </c>
       <c r="M6" t="n">
-        <v>111.9693913933997</v>
+        <v>111.9693913933959</v>
       </c>
       <c r="N6" t="n">
-        <v>175.7874379992875</v>
+        <v>175.7874379992816</v>
       </c>
       <c r="O6" t="n">
-        <v>232.0378471407263</v>
+        <v>232.0378471407188</v>
       </c>
       <c r="P6" t="n">
-        <v>257.8506933571224</v>
+        <v>257.8506933571136</v>
       </c>
       <c r="Q6" t="n">
-        <v>257.8506933571224</v>
+        <v>257.8506933571136</v>
       </c>
       <c r="R6" t="n">
-        <v>209.2450066339466</v>
+        <v>257.8506933571136</v>
       </c>
       <c r="S6" t="n">
-        <v>209.2450066339466</v>
+        <v>257.8506933571136</v>
       </c>
       <c r="T6" t="n">
-        <v>209.2450066339466</v>
+        <v>192.736881903297</v>
       </c>
       <c r="U6" t="n">
-        <v>209.2450066339466</v>
+        <v>131.4219545073942</v>
       </c>
       <c r="V6" t="n">
-        <v>200.4984482285989</v>
+        <v>131.4219545073942</v>
       </c>
       <c r="W6" t="n">
-        <v>200.4984482285989</v>
+        <v>131.4219545073942</v>
       </c>
       <c r="X6" t="n">
-        <v>200.4984482285989</v>
+        <v>131.4219545073942</v>
       </c>
       <c r="Y6" t="n">
-        <v>200.4984482285989</v>
+        <v>131.4219545073942</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.1377494158107</v>
+        <v>114.3925623424526</v>
       </c>
       <c r="C7" t="n">
-        <v>165.1377494158107</v>
+        <v>49.27875088863603</v>
       </c>
       <c r="D7" t="n">
-        <v>165.1377494158107</v>
+        <v>49.27875088863603</v>
       </c>
       <c r="E7" t="n">
-        <v>165.1377494158107</v>
+        <v>49.27875088863603</v>
       </c>
       <c r="F7" t="n">
-        <v>100.0239379619919</v>
+        <v>49.27875088863603</v>
       </c>
       <c r="G7" t="n">
-        <v>100.0239379619919</v>
+        <v>49.27875088863603</v>
       </c>
       <c r="H7" t="n">
-        <v>100.0239379619919</v>
+        <v>49.27875088863603</v>
       </c>
       <c r="I7" t="n">
-        <v>49.27875088863579</v>
+        <v>49.27875088863603</v>
       </c>
       <c r="J7" t="n">
-        <v>5.157013867142448</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="K7" t="n">
-        <v>5.157013867142448</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="L7" t="n">
-        <v>66.39655353945903</v>
+        <v>5.157013867142273</v>
       </c>
       <c r="M7" t="n">
-        <v>130.2146001453468</v>
+        <v>68.9750604730279</v>
       </c>
       <c r="N7" t="n">
-        <v>194.0326467512346</v>
+        <v>132.7931070789135</v>
       </c>
       <c r="O7" t="n">
-        <v>257.8506933571224</v>
+        <v>196.6111536847991</v>
       </c>
       <c r="P7" t="n">
-        <v>257.8506933571224</v>
+        <v>257.8506933571136</v>
       </c>
       <c r="Q7" t="n">
-        <v>230.2515608696295</v>
+        <v>230.2515608696203</v>
       </c>
       <c r="R7" t="n">
-        <v>230.2515608696295</v>
+        <v>165.1377494158037</v>
       </c>
       <c r="S7" t="n">
-        <v>230.2515608696295</v>
+        <v>165.1377494158037</v>
       </c>
       <c r="T7" t="n">
-        <v>230.2515608696295</v>
+        <v>165.1377494158037</v>
       </c>
       <c r="U7" t="n">
-        <v>230.2515608696295</v>
+        <v>165.1377494158037</v>
       </c>
       <c r="V7" t="n">
-        <v>230.2515608696295</v>
+        <v>165.1377494158037</v>
       </c>
       <c r="W7" t="n">
-        <v>165.1377494158107</v>
+        <v>165.1377494158037</v>
       </c>
       <c r="X7" t="n">
-        <v>165.1377494158107</v>
+        <v>165.1377494158037</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.1377494158107</v>
+        <v>114.3925623424526</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="C8" t="n">
-        <v>549.2024635036612</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="D8" t="n">
-        <v>549.2024635036612</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="E8" t="n">
-        <v>549.2024635036612</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="F8" t="n">
-        <v>359.7826784871767</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G8" t="n">
-        <v>170.3628934706922</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J8" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Y8" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652805</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>350.7471648378719</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="C9" t="n">
-        <v>350.7471648378719</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="D9" t="n">
-        <v>201.8127551766207</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="E9" t="n">
-        <v>201.8127551766207</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8127551766207</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G9" t="n">
-        <v>64.27357399906981</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H9" t="n">
         <v>64.27357399906981</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M9" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843266</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S9" t="n">
-        <v>722.9192922843266</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T9" t="n">
-        <v>722.9192922843266</v>
+        <v>493.0929011534488</v>
       </c>
       <c r="U9" t="n">
-        <v>722.9192922843266</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="V9" t="n">
-        <v>722.9192922843266</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="W9" t="n">
-        <v>708.3822868744245</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="X9" t="n">
-        <v>708.3822868744245</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="Y9" t="n">
-        <v>518.96250185794</v>
+        <v>303.6731161369638</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>503.2745059407193</v>
+        <v>355.5217864184852</v>
       </c>
       <c r="C10" t="n">
-        <v>334.3383230128124</v>
+        <v>186.5856034905783</v>
       </c>
       <c r="D10" t="n">
-        <v>334.3383230128124</v>
+        <v>186.5856034905783</v>
       </c>
       <c r="E10" t="n">
-        <v>334.3383230128124</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F10" t="n">
-        <v>334.3383230128124</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G10" t="n">
-        <v>165.6494995757274</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757274</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818525</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330557</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L10" t="n">
-        <v>187.8896250884405</v>
+        <v>118.7527324484196</v>
       </c>
       <c r="M10" t="n">
-        <v>373.539956383097</v>
+        <v>304.4030637430766</v>
       </c>
       <c r="N10" t="n">
-        <v>559.1902876777534</v>
+        <v>471.6341805242525</v>
       </c>
       <c r="O10" t="n">
-        <v>721.9284911143035</v>
+        <v>634.3723839608027</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846261</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R10" t="n">
-        <v>612.561488276858</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="S10" t="n">
-        <v>612.561488276858</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="T10" t="n">
-        <v>612.561488276858</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="U10" t="n">
-        <v>503.2745059407193</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2745059407193</v>
+        <v>557.3057129681432</v>
       </c>
       <c r="W10" t="n">
-        <v>503.2745059407193</v>
+        <v>367.8859279516582</v>
       </c>
       <c r="X10" t="n">
-        <v>503.2745059407193</v>
+        <v>367.8859279516582</v>
       </c>
       <c r="Y10" t="n">
-        <v>503.2745059407193</v>
+        <v>367.8859279516582</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2141.34427854677</v>
+        <v>1754.744438482649</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,13 +5051,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X11" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="Y11" t="n">
-        <v>2141.34427854677</v>
+        <v>2141.344278546771</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.6479724696237</v>
+        <v>680.3679798527296</v>
       </c>
       <c r="C13" t="n">
-        <v>452.6479724696237</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>302.531333057288</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610488</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046016</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676411</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696237</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.6479724696237</v>
+        <v>862.0164446829693</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1938.688118920001</v>
+        <v>1554.875546967111</v>
       </c>
       <c r="C14" t="n">
-        <v>1938.688118920001</v>
+        <v>1554.875546967111</v>
       </c>
       <c r="D14" t="n">
-        <v>1580.422420313251</v>
+        <v>1554.875546967111</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.634167715007</v>
+        <v>1169.087294368866</v>
       </c>
       <c r="F14" t="n">
-        <v>783.6482629253992</v>
+        <v>758.1013895792589</v>
       </c>
       <c r="G14" t="n">
-        <v>368.9230723503844</v>
+        <v>343.3761990042439</v>
       </c>
       <c r="H14" t="n">
-        <v>74.8958441327097</v>
+        <v>103.5050179357308</v>
       </c>
       <c r="I14" t="n">
-        <v>74.8958441327097</v>
+        <v>74.89584413270978</v>
       </c>
       <c r="J14" t="n">
-        <v>292.6616807355285</v>
+        <v>292.661680735529</v>
       </c>
       <c r="K14" t="n">
-        <v>669.774738079469</v>
+        <v>669.7747380794708</v>
       </c>
       <c r="L14" t="n">
-        <v>1174.518594190164</v>
+        <v>1174.518594190165</v>
       </c>
       <c r="M14" t="n">
-        <v>1767.812825286638</v>
+        <v>1767.812825286641</v>
       </c>
       <c r="N14" t="n">
-        <v>2375.320985691109</v>
+        <v>2375.320985691112</v>
       </c>
       <c r="O14" t="n">
-        <v>2935.638453410348</v>
+        <v>2935.638453410352</v>
       </c>
       <c r="P14" t="n">
-        <v>3379.355447846991</v>
+        <v>3379.355447846996</v>
       </c>
       <c r="Q14" t="n">
-        <v>3664.395685024593</v>
+        <v>3664.395685024598</v>
       </c>
       <c r="R14" t="n">
-        <v>3744.792206635484</v>
+        <v>3744.792206635489</v>
       </c>
       <c r="S14" t="n">
-        <v>3642.41471584157</v>
+        <v>3642.414715841574</v>
       </c>
       <c r="T14" t="n">
-        <v>3642.41471584157</v>
+        <v>3642.414715841574</v>
       </c>
       <c r="U14" t="n">
-        <v>3388.912019881805</v>
+        <v>3388.91201988181</v>
       </c>
       <c r="V14" t="n">
-        <v>3388.912019881805</v>
+        <v>3057.849132538239</v>
       </c>
       <c r="W14" t="n">
-        <v>3036.143364611691</v>
+        <v>2705.080477268125</v>
       </c>
       <c r="X14" t="n">
-        <v>2662.677606350611</v>
+        <v>2331.614719007044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2272.5382743748</v>
+        <v>1941.475387031232</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.2135205849196</v>
       </c>
       <c r="H15" t="n">
-        <v>87.50606553212486</v>
+        <v>87.50606553212489</v>
       </c>
       <c r="I15" t="n">
-        <v>74.8958441327097</v>
+        <v>74.89584413270978</v>
       </c>
       <c r="J15" t="n">
-        <v>185.7778376110253</v>
+        <v>185.7778376110255</v>
       </c>
       <c r="K15" t="n">
-        <v>453.4476502144673</v>
+        <v>453.4476502144679</v>
       </c>
       <c r="L15" t="n">
-        <v>565.9530912621118</v>
+        <v>859.685286921498</v>
       </c>
       <c r="M15" t="n">
-        <v>1059.370120480033</v>
+        <v>1353.102316139419</v>
       </c>
       <c r="N15" t="n">
-        <v>1580.255075168906</v>
+        <v>1873.987270828293</v>
       </c>
       <c r="O15" t="n">
-        <v>2034.54325037456</v>
+        <v>2034.543250374559</v>
       </c>
       <c r="P15" t="n">
         <v>2379.816495486817</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>647.5871158757855</v>
+        <v>371.9024310429559</v>
       </c>
       <c r="C16" t="n">
-        <v>607.1724344758595</v>
+        <v>371.9024310429559</v>
       </c>
       <c r="D16" t="n">
-        <v>607.1724344758595</v>
+        <v>221.7857916306201</v>
       </c>
       <c r="E16" t="n">
-        <v>459.2593408934664</v>
+        <v>221.7857916306201</v>
       </c>
       <c r="F16" t="n">
-        <v>312.369393395556</v>
+        <v>74.89584413270977</v>
       </c>
       <c r="G16" t="n">
-        <v>312.369393395556</v>
+        <v>74.89584413270977</v>
       </c>
       <c r="H16" t="n">
-        <v>167.5371318998183</v>
+        <v>74.89584413270977</v>
       </c>
       <c r="I16" t="n">
-        <v>74.8958441327097</v>
+        <v>74.89584413270977</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8121675098248</v>
+        <v>130.812167509825</v>
       </c>
       <c r="K16" t="n">
-        <v>352.5367003478225</v>
+        <v>352.5367003478227</v>
       </c>
       <c r="L16" t="n">
-        <v>691.7941998985632</v>
+        <v>691.7941998985638</v>
       </c>
       <c r="M16" t="n">
-        <v>1059.882788857902</v>
+        <v>1059.882788857903</v>
       </c>
       <c r="N16" t="n">
-        <v>1424.653670312091</v>
+        <v>1424.653670312092</v>
       </c>
       <c r="O16" t="n">
-        <v>1745.562323698549</v>
+        <v>1745.56232369855</v>
       </c>
       <c r="P16" t="n">
-        <v>1996.634433124764</v>
+        <v>1996.634433124766</v>
       </c>
       <c r="Q16" t="n">
-        <v>2087.028667448538</v>
+        <v>2087.02866744854</v>
       </c>
       <c r="R16" t="n">
-        <v>2004.202137063486</v>
+        <v>2087.02866744854</v>
       </c>
       <c r="S16" t="n">
-        <v>1815.230876381148</v>
+        <v>1898.057406766202</v>
       </c>
       <c r="T16" t="n">
-        <v>1594.129818092403</v>
+        <v>1676.956348477456</v>
       </c>
       <c r="U16" t="n">
-        <v>1594.129818092403</v>
+        <v>1387.861978077249</v>
       </c>
       <c r="V16" t="n">
-        <v>1339.445329886516</v>
+        <v>1291.750195951704</v>
       </c>
       <c r="W16" t="n">
-        <v>1050.028159849555</v>
+        <v>1002.333025914743</v>
       </c>
       <c r="X16" t="n">
-        <v>1050.028159849555</v>
+        <v>774.3434750167256</v>
       </c>
       <c r="Y16" t="n">
-        <v>829.2355807060252</v>
+        <v>553.5508958731955</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511625</v>
@@ -5516,16 +5516,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
@@ -5592,25 +5592,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2171.957806054385</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,19 +5686,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127669</v>
@@ -5716,7 +5716,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511625</v>
@@ -5756,13 +5756,13 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5783,19 +5783,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1968.593900456</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502089</v>
+        <v>872.8624197502091</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609035</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E22" t="n">
-        <v>501.684995803979</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315373</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749431</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443614</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,22 +5923,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237501</v>
@@ -5947,7 +5947,7 @@
         <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073042</v>
@@ -5975,10 +5975,10 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796679</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511625</v>
@@ -5990,19 +5990,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
@@ -6066,19 +6066,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>165.6257438946547</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
         <v>2555.644190323788</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897927</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L25" t="n">
         <v>857.3827676902787</v>
@@ -6160,37 +6160,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
         <v>766.683188695145</v>
@@ -6245,31 +6245,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J27" t="n">
-        <v>165.6257438946547</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502078</v>
       </c>
       <c r="C28" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477693</v>
       </c>
       <c r="D28" t="n">
-        <v>617.668592060904</v>
+        <v>617.6685920609021</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039775</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315378</v>
+        <v>386.7245456315356</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749436</v>
+        <v>251.2943450749413</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897924</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,7 +6397,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
         <v>2392.455631028688</v>
@@ -6412,7 +6412,7 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237501</v>
@@ -6424,10 +6424,10 @@
         <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511625</v>
@@ -6461,10 +6461,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6473,7 +6473,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,31 +6482,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502089</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477704</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609032</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039787</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897932</v>
@@ -6619,13 +6619,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,19 +6634,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
@@ -6698,7 +6698,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K32" t="n">
         <v>766.6831886951454</v>
@@ -6710,7 +6710,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
@@ -6777,13 +6777,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>165.6257438946547</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
         <v>1471.383887449136</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749444</v>
@@ -6856,16 +6856,16 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
@@ -6883,22 +6883,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6917,28 +6917,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6947,7 +6947,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
@@ -6959,28 +6959,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>165.6257438946547</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
         <v>2049.239235375538</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D37" t="n">
         <v>617.6685920609049</v>
@@ -7084,34 +7084,34 @@
         <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7123,22 +7123,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7154,34 +7154,34 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162846</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889756</v>
@@ -7251,16 +7251,16 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>165.6257438946547</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
         <v>2049.239235375538</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897932</v>
@@ -7330,40 +7330,40 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443634</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902808</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357084</v>
@@ -7375,7 +7375,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7397,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511622</v>
@@ -7418,7 +7418,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
         <v>2681.771598889755</v>
@@ -7488,28 +7488,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>216.5575109835859</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448909</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M42" t="n">
-        <v>850.66941185518</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
         <v>501.6849958039802</v>
@@ -7561,19 +7561,19 @@
         <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7588,19 +7588,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357084</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7631,25 +7631,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7661,37 +7661,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334505</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5985603334505</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M45" t="n">
-        <v>850.66941185518</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F46" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,10 +7819,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7834,19 +7834,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>85.97480228639999</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K2" t="n">
         <v>77.60291342766286</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>48.09297388186607</v>
+        <v>48.09297388186715</v>
       </c>
       <c r="K5" t="n">
-        <v>20.82787250024739</v>
+        <v>20.82787250024899</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>53.02698397509525</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>14.36500720751764</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>30.62682866962629</v>
       </c>
       <c r="P5" t="n">
-        <v>56.67191401487717</v>
+        <v>23.11576750192024</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.6062749453217</v>
+        <v>53.14360160604247</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>47.65177199336942</v>
+        <v>47.65177199337006</v>
       </c>
       <c r="K6" t="n">
-        <v>2.50020080032877</v>
+        <v>2.50020080032985</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.99393162691361</v>
+        <v>32.99393162691446</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>47.37595834441478</v>
+        <v>47.37595834441544</v>
       </c>
       <c r="L7" t="n">
-        <v>92.27516012352604</v>
+        <v>30.41703924239901</v>
       </c>
       <c r="M7" t="n">
-        <v>93.24198147297349</v>
+        <v>93.24198147297218</v>
       </c>
       <c r="N7" t="n">
-        <v>84.62077899597786</v>
+        <v>84.62077899597654</v>
       </c>
       <c r="O7" t="n">
-        <v>103.600218231145</v>
+        <v>103.6002182311436</v>
       </c>
       <c r="P7" t="n">
-        <v>52.7434471722534</v>
+        <v>114.6015680533798</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402859</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457082</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711115</v>
+        <v>145.2551346857775</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>46.56605103777582</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.18259021116552</v>
+        <v>14.18259021116549</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>160.2079987529971</v>
+        <v>248.3340760291565</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292596</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>78.80074644674396</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23464,10 +23464,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.22218776323054</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>53.61448667766991</v>
       </c>
       <c r="I14" t="n">
-        <v>28.32308206499093</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>127.2362865127012</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.8715972532108</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.3839388807803</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.71487488943743</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>81.99826508120159</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2034266962046</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>156.9869790195376</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.750155989720952e-13</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.506350599811412e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.353761712787673e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1248146.125640919</v>
+        <v>1248146.12564092</v>
       </c>
     </row>
     <row r="4">
@@ -26314,7 +26314,7 @@
         <v>204841.3756106086</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
@@ -26332,10 +26332,10 @@
         <v>205260.442466071</v>
       </c>
       <c r="I2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.442466071</v>
       </c>
       <c r="J2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="K2" t="n">
         <v>205260.442466071</v>
@@ -26344,16 +26344,16 @@
         <v>205260.4424660708</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>268497.8903749795</v>
       </c>
       <c r="C3" t="n">
-        <v>121925.5519764692</v>
+        <v>121925.5519764656</v>
       </c>
       <c r="D3" t="n">
-        <v>174232.7166228234</v>
+        <v>174232.7166228273</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336681</v>
+        <v>627134.6436336675</v>
       </c>
       <c r="F3" t="n">
-        <v>97623.44433987605</v>
+        <v>97623.44433987707</v>
       </c>
       <c r="G3" t="n">
-        <v>139815.6116765437</v>
+        <v>139815.6116765427</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.126388037344441e-11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>16590.62931198399</v>
+        <v>16590.62931198335</v>
       </c>
       <c r="L3" t="n">
-        <v>56434.27780517029</v>
+        <v>56434.27780517098</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
-        <v>25667.51593133497</v>
+        <v>25667.51593133527</v>
       </c>
       <c r="O3" t="n">
-        <v>30335.75767362469</v>
+        <v>30335.75767362442</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>358108.4547190568</v>
       </c>
       <c r="C4" t="n">
-        <v>325234.927404929</v>
+        <v>325234.92740493</v>
       </c>
       <c r="D4" t="n">
-        <v>273280.8790357536</v>
+        <v>273280.8790357534</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
@@ -26430,34 +26430,34 @@
         <v>9824.633983030846</v>
       </c>
       <c r="G4" t="n">
+        <v>40959.76311600996</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40959.76311600996</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40959.76311600996</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40959.76311600994</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40959.76311600995</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40959.76311601002</v>
+      </c>
+      <c r="M4" t="n">
+        <v>40959.76311601001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40959.76311601001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>40959.76311601002</v>
+      </c>
+      <c r="P4" t="n">
         <v>40959.76311600999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40959.76311600999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40959.76311600999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40959.76311601001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40959.76311600999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40959.76311601001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40959.76311600998</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40959.76311601002</v>
-      </c>
-      <c r="O4" t="n">
-        <v>40959.76311601001</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40959.76311601004</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>39701.87879260092</v>
       </c>
       <c r="C5" t="n">
-        <v>46041.55348963665</v>
+        <v>46041.55348963644</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82542.24448230256</v>
+        <v>82542.24448230265</v>
       </c>
       <c r="G5" t="n">
         <v>95106.4341021553</v>
@@ -26491,25 +26491,25 @@
         <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-461466.8482760286</v>
+        <v>-461471.0389445833</v>
       </c>
       <c r="C6" t="n">
-        <v>-287941.5904049639</v>
+        <v>-287941.5904049613</v>
       </c>
       <c r="D6" t="n">
-        <v>-299238.9536041197</v>
+        <v>-299238.9536041236</v>
       </c>
       <c r="E6" t="n">
-        <v>-540712.8378116925</v>
+        <v>-541060.456741498</v>
       </c>
       <c r="F6" t="n">
-        <v>-9873.769879800195</v>
+        <v>-10125.20877520789</v>
       </c>
       <c r="G6" t="n">
-        <v>-70621.36642863802</v>
+        <v>-70621.3664286369</v>
       </c>
       <c r="H6" t="n">
-        <v>69194.24524790572</v>
+        <v>69194.24524790575</v>
       </c>
       <c r="I6" t="n">
         <v>69194.24524790575</v>
       </c>
       <c r="J6" t="n">
-        <v>69194.24524790565</v>
+        <v>69194.24524790575</v>
       </c>
       <c r="K6" t="n">
-        <v>52603.61593592167</v>
+        <v>52603.61593592244</v>
       </c>
       <c r="L6" t="n">
-        <v>12759.96744273524</v>
+        <v>12759.96744273449</v>
       </c>
       <c r="M6" t="n">
-        <v>-91262.19661997193</v>
+        <v>-91262.19661997163</v>
       </c>
       <c r="N6" t="n">
-        <v>43526.72931657048</v>
+        <v>43526.7293165704</v>
       </c>
       <c r="O6" t="n">
-        <v>38858.48757428087</v>
+        <v>38858.48757428113</v>
       </c>
       <c r="P6" t="n">
-        <v>69194.24524790581</v>
+        <v>69194.24524790571</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221379</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221388</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221392</v>
       </c>
       <c r="N2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>31.61020235221391</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>389.6616032389169</v>
+        <v>389.6616032389138</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1175.293712910238</v>
+        <v>1175.293712910239</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,16 +26790,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>936.1980516588711</v>
+        <v>936.1980516588723</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>111.0249613764893</v>
+        <v>111.0249613764861</v>
       </c>
       <c r="D3" t="n">
-        <v>158.8083376739874</v>
+        <v>158.808337673991</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803941</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
-        <v>85.51701231694005</v>
+        <v>85.51701231694096</v>
       </c>
       <c r="G3" t="n">
-        <v>102.8661577098846</v>
+        <v>102.8661577098837</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="D4" t="n">
-        <v>123.062913827039</v>
+        <v>123.0629138270417</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
-        <v>104.7965962565784</v>
+        <v>104.7965962565794</v>
       </c>
       <c r="G4" t="n">
-        <v>126.0570605300819</v>
+        <v>126.0570605300808</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>64.46267333928083</v>
+        <v>64.46267333927818</v>
       </c>
       <c r="L4" t="n">
-        <v>123.062913827039</v>
+        <v>123.0629138270417</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
-        <v>104.7965962565784</v>
+        <v>104.7965962565796</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0570605300817</v>
+        <v>126.0570605300805</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="L4" t="n">
-        <v>123.062913827039</v>
+        <v>123.0629138270417</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
-        <v>104.7965962565784</v>
+        <v>104.7965962565794</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0570605300819</v>
+        <v>126.0570605300808</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>62.94669922618534</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S3" t="n">
         <v>160.5508486671644</v>
@@ -27558,7 +27558,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J4" t="n">
-        <v>57.83529218611378</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.08791033046782</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R4" t="n">
         <v>154.7009843173077</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>342.4133724024308</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2735853688638</v>
+        <v>349.273585368866</v>
       </c>
       <c r="H5" t="n">
-        <v>323.4321010336745</v>
+        <v>323.4321010336746</v>
       </c>
       <c r="I5" t="n">
-        <v>150.0842153639</v>
+        <v>85.62154202462207</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>168.0140046762334</v>
+        <v>173.3239337719469</v>
       </c>
       <c r="T5" t="n">
-        <v>216.2385885865299</v>
+        <v>216.23858858653</v>
       </c>
       <c r="U5" t="n">
-        <v>186.7576612639967</v>
+        <v>188.3237779099998</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>82.98239222535815</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>93.18240711612034</v>
+        <v>93.18240711612253</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.5053771109609</v>
       </c>
       <c r="H6" t="n">
-        <v>39.67810249785647</v>
+        <v>104.1407758371371</v>
       </c>
       <c r="I6" t="n">
-        <v>60.53961789457075</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>48.1196298559444</v>
       </c>
       <c r="S6" t="n">
-        <v>156.1150872385849</v>
+        <v>156.115087238585</v>
       </c>
       <c r="T6" t="n">
-        <v>196.7864361157974</v>
+        <v>132.323762776519</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8862412880636</v>
+        <v>165.1844631661199</v>
       </c>
       <c r="V6" t="n">
-        <v>224.141494328131</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>102.7841477593494</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>80.95837468365065</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.2883108936017</v>
@@ -27792,7 +27792,7 @@
         <v>155.9798110653468</v>
       </c>
       <c r="I7" t="n">
-        <v>84.08158261784328</v>
+        <v>134.319317820466</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>145.6988620391419</v>
+        <v>81.23618869986376</v>
       </c>
       <c r="S7" t="n">
-        <v>211.7710030630542</v>
+        <v>211.7710030630543</v>
       </c>
       <c r="T7" t="n">
-        <v>224.9432787148013</v>
+        <v>224.9432787148014</v>
       </c>
       <c r="U7" t="n">
         <v>286.2807019856805</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>222.0603249973104</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>168.3469181494772</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046879</v>
+        <v>200.1003545949128</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753918</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637384</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H8" t="n">
-        <v>163.0865880738096</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>90.74048944623752</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>237.3033478051165</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098472</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>167.591480064096</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -28065,13 +28065,13 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>178.0709689806731</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750788</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027088</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>31.61020235221392</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221321</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221613</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221328</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
   </sheetData>
@@ -31048,7 +31048,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J2" t="n">
-        <v>95.07110224028629</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K2" t="n">
         <v>142.4869376173177</v>
@@ -31121,7 +31121,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H3" t="n">
-        <v>5.788281937557224</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I3" t="n">
         <v>20.63488338320808</v>
@@ -31160,7 +31160,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H4" t="n">
         <v>4.467321897400891</v>
@@ -31206,7 +31206,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J4" t="n">
-        <v>35.523887930559</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K4" t="n">
         <v>58.37666037707908</v>
@@ -31227,7 +31227,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.07413292122656</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R4" t="n">
         <v>22.59240705986175</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.566478806990619</v>
+        <v>1.566478806990607</v>
       </c>
       <c r="H5" t="n">
-        <v>16.04270108209268</v>
+        <v>16.04270108209256</v>
       </c>
       <c r="I5" t="n">
-        <v>60.39167420650592</v>
+        <v>60.39167420650543</v>
       </c>
       <c r="J5" t="n">
-        <v>132.9529306448202</v>
+        <v>132.9529306448191</v>
       </c>
       <c r="K5" t="n">
-        <v>199.2619785447332</v>
+        <v>199.2619785447316</v>
       </c>
       <c r="L5" t="n">
-        <v>247.2021043341724</v>
+        <v>247.2021043341704</v>
       </c>
       <c r="M5" t="n">
-        <v>275.0599718179918</v>
+        <v>275.0599718179896</v>
       </c>
       <c r="N5" t="n">
-        <v>279.5107297283539</v>
+        <v>279.5107297283517</v>
       </c>
       <c r="O5" t="n">
-        <v>263.9340560913409</v>
+        <v>263.9340560913388</v>
       </c>
       <c r="P5" t="n">
-        <v>225.26161054376</v>
+        <v>225.2616105437582</v>
       </c>
       <c r="Q5" t="n">
-        <v>169.1620882684084</v>
+        <v>169.162088268407</v>
       </c>
       <c r="R5" t="n">
-        <v>98.40032435962459</v>
+        <v>98.4003243596238</v>
       </c>
       <c r="S5" t="n">
-        <v>35.69613581429878</v>
+        <v>35.69613581429849</v>
       </c>
       <c r="T5" t="n">
-        <v>6.85726097760144</v>
+        <v>6.857260977601385</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1253183045592495</v>
+        <v>0.1253183045592485</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8381400522497457</v>
+        <v>0.8381400522497391</v>
       </c>
       <c r="H6" t="n">
-        <v>8.094668399359389</v>
+        <v>8.094668399359323</v>
       </c>
       <c r="I6" t="n">
-        <v>28.85701495684432</v>
+        <v>28.85701495684409</v>
       </c>
       <c r="J6" t="n">
-        <v>79.18585467329727</v>
+        <v>79.18585467329663</v>
       </c>
       <c r="K6" t="n">
-        <v>135.3412381740302</v>
+        <v>135.3412381740291</v>
       </c>
       <c r="L6" t="n">
-        <v>181.9829968711564</v>
+        <v>181.982996871155</v>
       </c>
       <c r="M6" t="n">
-        <v>206.5967072612989</v>
+        <v>206.5967072612967</v>
       </c>
       <c r="N6" t="n">
-        <v>195.8043854226139</v>
+        <v>195.8043854226117</v>
       </c>
       <c r="O6" t="n">
-        <v>199.4148395368068</v>
+        <v>199.4148395368052</v>
       </c>
       <c r="P6" t="n">
-        <v>160.047989451094</v>
+        <v>160.0479894510927</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.9878424591079</v>
+        <v>106.9878424591071</v>
       </c>
       <c r="R6" t="n">
-        <v>52.03820429669915</v>
+        <v>52.03820429669873</v>
       </c>
       <c r="S6" t="n">
-        <v>15.56808386525294</v>
+        <v>15.56808386525282</v>
       </c>
       <c r="T6" t="n">
-        <v>3.378292579024193</v>
+        <v>3.378292579024166</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0551407929111675</v>
+        <v>0.05514079291116707</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7026684648570631</v>
+        <v>0.7026684648570575</v>
       </c>
       <c r="H7" t="n">
-        <v>6.247361442092802</v>
+        <v>6.247361442092752</v>
       </c>
       <c r="I7" t="n">
-        <v>21.13115710679241</v>
+        <v>21.13115710679224</v>
       </c>
       <c r="J7" t="n">
-        <v>49.67866046539437</v>
+        <v>49.67866046539396</v>
       </c>
       <c r="K7" t="n">
-        <v>81.6372998261206</v>
+        <v>81.63729982611994</v>
       </c>
       <c r="L7" t="n">
-        <v>104.4676370388401</v>
+        <v>104.4676370388393</v>
       </c>
       <c r="M7" t="n">
-        <v>110.1464758139122</v>
+        <v>110.1464758139113</v>
       </c>
       <c r="N7" t="n">
-        <v>107.5274388085359</v>
+        <v>107.5274388085351</v>
       </c>
       <c r="O7" t="n">
-        <v>99.31899355997838</v>
+        <v>99.31899355997759</v>
       </c>
       <c r="P7" t="n">
-        <v>84.98455687689422</v>
+        <v>84.98455687689354</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.83890208907645</v>
+        <v>58.83890208907597</v>
       </c>
       <c r="R7" t="n">
-        <v>31.59452933802758</v>
+        <v>31.59452933802732</v>
       </c>
       <c r="S7" t="n">
-        <v>12.24559497391809</v>
+        <v>12.24559497391799</v>
       </c>
       <c r="T7" t="n">
-        <v>3.002310713480178</v>
+        <v>3.002310713480154</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03832737081038531</v>
+        <v>0.038327370810385</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550071</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.724798845870302</v>
+        <v>4.724798845870305</v>
       </c>
       <c r="H14" t="n">
-        <v>48.38784618026924</v>
+        <v>48.38784618026927</v>
       </c>
       <c r="I14" t="n">
-        <v>182.152807505415</v>
+        <v>182.1528075054151</v>
       </c>
       <c r="J14" t="n">
-        <v>401.0113960446848</v>
+        <v>401.0113960446852</v>
       </c>
       <c r="K14" t="n">
-        <v>601.0121311903748</v>
+        <v>601.0121311903753</v>
       </c>
       <c r="L14" t="n">
-        <v>745.6086938696782</v>
+        <v>745.6086938696787</v>
       </c>
       <c r="M14" t="n">
-        <v>829.6333353449241</v>
+        <v>829.6333353449248</v>
       </c>
       <c r="N14" t="n">
-        <v>843.0576700657532</v>
+        <v>843.0576700657539</v>
       </c>
       <c r="O14" t="n">
-        <v>796.0754515421304</v>
+        <v>796.075451542131</v>
       </c>
       <c r="P14" t="n">
-        <v>679.4319800347072</v>
+        <v>679.4319800347077</v>
       </c>
       <c r="Q14" t="n">
-        <v>510.2251213669769</v>
+        <v>510.2251213669772</v>
       </c>
       <c r="R14" t="n">
-        <v>296.7941455019006</v>
+        <v>296.7941455019008</v>
       </c>
       <c r="S14" t="n">
-        <v>107.6663537002696</v>
+        <v>107.6663537002697</v>
       </c>
       <c r="T14" t="n">
-        <v>20.68280694779725</v>
+        <v>20.68280694779727</v>
       </c>
       <c r="U14" t="n">
-        <v>0.377983907669624</v>
+        <v>0.3779839076696243</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.527990250410701</v>
+        <v>2.527990250410703</v>
       </c>
       <c r="H15" t="n">
-        <v>24.41506373422967</v>
+        <v>24.41506373422969</v>
       </c>
       <c r="I15" t="n">
-        <v>87.03826081457899</v>
+        <v>87.03826081457905</v>
       </c>
       <c r="J15" t="n">
-        <v>238.8396402811269</v>
+        <v>238.8396402811271</v>
       </c>
       <c r="K15" t="n">
-        <v>408.2149870586439</v>
+        <v>408.2149870586442</v>
       </c>
       <c r="L15" t="n">
-        <v>252.1962394239595</v>
+        <v>548.8954269586925</v>
       </c>
       <c r="M15" t="n">
-        <v>640.5350735360798</v>
+        <v>640.5350735360803</v>
       </c>
       <c r="N15" t="n">
-        <v>657.4881309609833</v>
+        <v>657.4881309609838</v>
       </c>
       <c r="O15" t="n">
-        <v>601.4731890966198</v>
+        <v>304.7740015618847</v>
       </c>
       <c r="P15" t="n">
-        <v>482.7352610630751</v>
+        <v>482.7352610630755</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.6957379296187</v>
+        <v>322.6957379296189</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.95631013372506</v>
+        <v>46.9563101337251</v>
       </c>
       <c r="T15" t="n">
         <v>10.18957473740103</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1663151480533357</v>
+        <v>0.1663151480533358</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.119382105247971</v>
+        <v>2.119382105247972</v>
       </c>
       <c r="H16" t="n">
-        <v>18.84323362665924</v>
+        <v>18.84323362665926</v>
       </c>
       <c r="I16" t="n">
-        <v>63.73560003782081</v>
+        <v>63.73560003782086</v>
       </c>
       <c r="J16" t="n">
-        <v>149.8403148410315</v>
+        <v>149.8403148410316</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2336664097187</v>
+        <v>246.2336664097189</v>
       </c>
       <c r="L16" t="n">
-        <v>315.0943177202302</v>
+        <v>315.0943177202304</v>
       </c>
       <c r="M16" t="n">
-        <v>332.2227785526432</v>
+        <v>332.2227785526434</v>
       </c>
       <c r="N16" t="n">
-        <v>324.3232634330828</v>
+        <v>324.3232634330831</v>
       </c>
       <c r="O16" t="n">
-        <v>299.5650270217769</v>
+        <v>299.5650270217772</v>
       </c>
       <c r="P16" t="n">
-        <v>256.3296320747181</v>
+        <v>256.3296320747183</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.469350649446</v>
+        <v>177.4693506494461</v>
       </c>
       <c r="R16" t="n">
-        <v>95.29512629596782</v>
+        <v>95.29512629596789</v>
       </c>
       <c r="S16" t="n">
-        <v>36.9350499614578</v>
+        <v>36.93504996145783</v>
       </c>
       <c r="T16" t="n">
-        <v>9.055541722423145</v>
+        <v>9.055541722423152</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1156026602862531</v>
+        <v>0.1156026602862532</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
@@ -32327,13 +32327,13 @@
         <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>521.5364117268584</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>209.0440289417418</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,7 +32549,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
         <v>443.9435090247271</v>
@@ -32564,10 +32564,10 @@
         <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P21" t="n">
-        <v>215.4343416764904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>208.2975609288268</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
         <v>443.9435090247271</v>
@@ -32801,7 +32801,7 @@
         <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>208.2975609288268</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
         <v>443.9435090247271</v>
@@ -33038,7 +33038,7 @@
         <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,16 +33260,16 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N30" t="n">
         <v>715.033982716063</v>
@@ -33278,13 +33278,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J33" t="n">
-        <v>208.2975609288268</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
         <v>443.9435090247271</v>
@@ -33506,7 +33506,7 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>208.2975609288268</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
         <v>443.9435090247271</v>
@@ -33746,7 +33746,7 @@
         <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578284</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>208.2975609288268</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
         <v>443.9435090247271</v>
@@ -33983,7 +33983,7 @@
         <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578284</v>
@@ -34153,7 +34153,7 @@
         <v>554.8819566972012</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
-        <v>224.6083558013943</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
         <v>696.597129487967</v>
@@ -34226,13 +34226,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>221.4417083481816</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34445,16 +34445,16 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>593.4871659531818</v>
       </c>
       <c r="M45" t="n">
-        <v>476.5490354591188</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
         <v>715.033982716063</v>
@@ -34466,10 +34466,10 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>11.43568936418515</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="M5" t="n">
-        <v>44.71373859071909</v>
+        <v>44.71373859071687</v>
       </c>
       <c r="N5" t="n">
-        <v>50.09766613176299</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="O5" t="n">
-        <v>33.83584466965422</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="P5" t="n">
-        <v>50.70052880336761</v>
+        <v>17.14438229040886</v>
       </c>
       <c r="Q5" t="n">
-        <v>64.4626733392806</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>43.42861709128226</v>
+        <v>43.42861709128078</v>
       </c>
       <c r="M6" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="N6" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="O6" t="n">
-        <v>56.81859509236239</v>
+        <v>56.81859509236079</v>
       </c>
       <c r="P6" t="n">
-        <v>26.07358203676375</v>
+        <v>26.07358203676247</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>61.85812088112787</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="N7" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="O7" t="n">
-        <v>64.4626733392806</v>
+        <v>64.46267333927841</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>61.85812088112575</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880151</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663196</v>
+        <v>168.9203199809858</v>
       </c>
       <c r="O10" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>28.45844197068189</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.9654915179985</v>
+        <v>219.9654915179989</v>
       </c>
       <c r="K14" t="n">
-        <v>380.9222801453943</v>
+        <v>380.9222801453947</v>
       </c>
       <c r="L14" t="n">
-        <v>509.8422788996909</v>
+        <v>509.8422788996915</v>
       </c>
       <c r="M14" t="n">
-        <v>599.2871021176514</v>
+        <v>599.2871021176521</v>
       </c>
       <c r="N14" t="n">
-        <v>613.6446064691622</v>
+        <v>613.6446064691629</v>
       </c>
       <c r="O14" t="n">
-        <v>565.9772401204436</v>
+        <v>565.9772401204442</v>
       </c>
       <c r="P14" t="n">
-        <v>448.1989842794376</v>
+        <v>448.1989842794382</v>
       </c>
       <c r="Q14" t="n">
-        <v>287.9194314925273</v>
+        <v>287.9194314925278</v>
       </c>
       <c r="R14" t="n">
-        <v>81.20860768776845</v>
+        <v>81.20860768776868</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>112.0020136144602</v>
+        <v>112.0020136144604</v>
       </c>
       <c r="K15" t="n">
-        <v>270.3735480842849</v>
+        <v>270.3735480842852</v>
       </c>
       <c r="L15" t="n">
-        <v>113.6418596440853</v>
+        <v>410.3410471788183</v>
       </c>
       <c r="M15" t="n">
-        <v>498.4010396140615</v>
+        <v>498.401039614062</v>
       </c>
       <c r="N15" t="n">
-        <v>526.14641887765</v>
+        <v>526.1464188776505</v>
       </c>
       <c r="O15" t="n">
-        <v>458.8769446521753</v>
+        <v>162.1777571174403</v>
       </c>
       <c r="P15" t="n">
-        <v>348.7608536487449</v>
+        <v>348.7608536487452</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.7139638435972</v>
+        <v>182.7139638435974</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.48113472435872</v>
+        <v>56.48113472435884</v>
       </c>
       <c r="K16" t="n">
-        <v>223.9641745838359</v>
+        <v>223.964174583836</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6843429805463</v>
+        <v>342.6843429805465</v>
       </c>
       <c r="M16" t="n">
-        <v>371.8066555144838</v>
+        <v>371.806655514484</v>
       </c>
       <c r="N16" t="n">
-        <v>368.4554358123114</v>
+        <v>368.4554358123117</v>
       </c>
       <c r="O16" t="n">
-        <v>324.1501549358165</v>
+        <v>324.1501549358168</v>
       </c>
       <c r="P16" t="n">
-        <v>253.6081913396116</v>
+        <v>253.6081913396118</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.30730739775161</v>
+        <v>91.30730739775173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
@@ -35975,13 +35975,13 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817348</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
         <v>306.1020700503681</v>
@@ -36212,10 +36212,10 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P21" t="n">
-        <v>81.45993426216013</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817348</v>
@@ -36288,7 +36288,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>81.45993426216006</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
         <v>306.1020700503681</v>
@@ -36449,7 +36449,7 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817348</v>
@@ -36613,10 +36613,10 @@
         <v>507.6654448276931</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227535</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>81.45993426216009</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
         <v>306.1020700503681</v>
@@ -36686,7 +36686,7 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327297</v>
@@ -36926,13 +36926,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>81.45993426216006</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
         <v>306.1020700503681</v>
@@ -37154,7 +37154,7 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
@@ -37239,7 +37239,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>81.45993426216006</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
         <v>306.1020700503681</v>
@@ -37394,7 +37394,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O36" t="n">
         <v>511.520156513384</v>
@@ -37549,7 +37549,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N38" t="n">
         <v>687.4322072151683</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>81.45993426216006</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
         <v>306.1020700503681</v>
@@ -37631,7 +37631,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O39" t="n">
         <v>511.520156513384</v>
@@ -37701,25 +37701,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801415</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
-        <v>86.05397602152016</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37874,13 +37874,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38017,7 +38017,7 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169881</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>454.9327861733077</v>
       </c>
       <c r="M45" t="n">
-        <v>334.4150015371005</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327297</v>
@@ -38114,10 +38114,10 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193552</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
